--- a/haiku_chains.xlsx
+++ b/haiku_chains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,174 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9047</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>hello there</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://picsum.photos/300/200?random=360</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>New chain - no rules yet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5339</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hello there</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://picsum.photos/300/200?random=131</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>New chain - no rules yet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4903</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hello there</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://picsum.photos/300/200?random=415</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>New chain - no rules yet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>hello there</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://picsum.photos/300/200?random=819</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>New chain - no rules yet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6608</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>hello there</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://picsum.photos/300/200?random=96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>New chain - no rules yet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1790</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>hello there</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://picsum.photos/300/200?random=510</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>New chain - no rules yet!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
